--- a/Output_testing/R1_201907/Country/HKD/MN/MALAWI_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MALAWI_201907_HKD_MN.xlsx
@@ -644,7 +644,7 @@
         <v>136</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D10" s="8" t="n">
         <v>31.248276</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/MALAWI_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MALAWI_201907_HKD_MN.xlsx
@@ -547,14 +547,20 @@
       <c r="D7" s="8" t="n">
         <v>0.898963</v>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0.44861</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.251114</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-50.09694503555764</v>
@@ -655,8 +661,10 @@
       <c r="F10" s="8" t="n">
         <v>10.576029</v>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>0.0008319999999999999</v>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H10" s="9" t="n">
         <v>-44.25723838332713</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/MALAWI_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MALAWI_201907_HKD_MN.xlsx
@@ -818,136 +818,475 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>90.648042</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>85.45187820827947</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>153.643227</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>87.98512528279817</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>239.356929</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>89.49164221610918</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>128.094967</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>92.37717917385508</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-12.31050477980265</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0.2308942558115391</v>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>1.842744</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>1.328916323929779</v>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.2096571531549529</v>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.1028872917324186</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>9.992075</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>3.735873469936311</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>1.740914</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>1.255480431985066</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-26.02539141342248</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>7.742109</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>7.298312691003566</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>7.839068</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>4.489110216881699</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>7.744643</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>2.895595391130267</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1.615163</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1.164793631946377</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>20.87634363135762</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.1976559246952184</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>0.7176</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.4109398581099574</v>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.128643642916498</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1.341768</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0.9676316396236333</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>394.6245438124378</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>0.601474</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.3444392979610208</v>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H23" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>0.840652</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.6062459926849399</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>623.1415053763441</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>0.635118</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.5987115086709324</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>0.778158</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.445618921553969</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>2.618493</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.9790117197793192</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>0.73449</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.529686028424558</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-71.2238587038924</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.05520131459784237</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>0.509347</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.2916819731169627</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>0.501274</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.1874181526628708</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>0.73128</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.5273710994925878</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>45.88428683713897</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>0.972587</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.9168359739193915</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>0.685192</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.3923811360898521</v>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.1428549604448671</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.3029967930517863</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>27.40148884879543</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.2652986981895792</v>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.1547375252508827</v>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.1490513341727719</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.1653760709503073</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-1.332524438937077</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>5.300561</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>4.996720094710441</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>8.996955</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>5.152184240693522</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>6.004018</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>2.24480416322136</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>1.073716</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>0.7743228140558792</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-60.96356071590098</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -979,136 +1318,609 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>0.640674</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>71.26811670780666</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>96.32865963754709</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>88.256329794436</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>3.335287436746563</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>1.096720982590669</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>11.74367020556401</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>2.574619379862241</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>25.39659585544677</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>VEGETABLES, FRESH, CHILLED, FROZEN OR SIMPLY PRESERVED; ROOTS, TUBERS AND OTHER EDIBLE VEGETABLE PRODUCTS, N.E.S., FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>SPICES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>PLATES, SHEETS, FILM, FOIL AND STRIP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1140,136 +1952,475 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>90.648042</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>86.18221410911944</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>153.643227</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>88.21174160315088</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>239.356929</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>89.5757425687069</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>128.094967</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>92.37717917385508</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-12.31050477980265</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>0.2314889518635639</v>
+      </c>
+      <c r="G45" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H45" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>1.842744</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>1.328916323929779</v>
+      </c>
+      <c r="K45" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.2114490405777636</v>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.1031522903829123</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>9.992075</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>3.739384281318265</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>1.740914</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>1.255480431985066</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-26.02539141342248</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>7.742109</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>7.360689550185107</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>7.839068</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>4.500672462610596</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>7.744643</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>2.89831654572464</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1.615163</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.164793631946377</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>20.87634363135762</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.199345240610157</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>0.7176</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.4119982833634513</v>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.1287645366162985</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1.341768</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>0.9676316396236333</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>394.6245438124378</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>0.601474</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.3453264429873865</v>
+      </c>
+      <c r="G49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H49" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>0.840652</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.6062459926849399</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>623.1415053763441</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>0.635118</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.603828546683399</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>0.778158</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.4467666669252182</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>2.618493</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.979931752407974</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>0.73449</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.529686028424558</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-71.2238587038924</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.05567310647263419</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>0.509347</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.2924332352791581</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>0.501274</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.1875942800903247</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>0.73128</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.5273710994925878</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>45.88428683713897</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>0.972587</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.9246719424314332</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>0.685192</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.3933917611125557</v>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.142989209322709</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.3029967930517863</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>27.40148884879543</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.2390602697553011</v>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.1523113330479468</v>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.1381552157065895</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.1653760709503073</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>13.00621901579886</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>4.431581</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>4.213256614896388</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>8.553265</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>4.910716969276325</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>5.782394</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>2.163974272810107</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>1.073716</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>0.7743228140558792</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-57.5425754194274</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1301,136 +2452,569 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>7.894472925060911</v>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>3.410273733398834</v>
+      </c>
+      <c r="G57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>2.089284233706337</v>
+      </c>
+      <c r="I57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>47.12553527749179</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>133.2007165202041</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>2.419624338104728</v>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>1.122704194528018</v>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>1.754170652771795</v>
+      </c>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>43.0128991219154</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>156.3662799787374</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>6.509902012258792</v>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>1.10565766216026</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>0.619243</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>4.515650945460748</v>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>9.816710494389833</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-87.91298407894801</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.1609994423405456</v>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>0.06530175426545151</v>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-95.10939510939511</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>64.19850594460814</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>86.25681932416758</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>12.558</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>91.57559241379568</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>0.7098640000000001</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>8.077916991125447</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>SPICES</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>1.041465</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>18.07040459286522</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>VEGETABLES, FRESH, CHILLED, FROZEN OR SIMPLY PRESERVED; ROOTS, TUBERS AND OTHER EDIBLE VEGETABLE PRODUCTS, N.E.S., FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.7460907447616622</v>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>PLATES, SHEETS, FILM, FOIL AND STRIP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
